--- a/20 開発資料/03.詳細設計/プロセス概要(20_送受信ログ照会).xlsx
+++ b/20 開発資料/03.詳細設計/プロセス概要(20_送受信ログ照会).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100"/>
+    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="6" r:id="rId1"/>
@@ -484,9 +484,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>送信／受信/処理名/処理日/処理結果</t>
-  </si>
-  <si>
     <t>登録日時の昇順</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -539,6 +536,9 @@
   </si>
   <si>
     <t>備考を赤字で連結して表示</t>
+  </si>
+  <si>
+    <t>送信／受信/処理名/送受信日/処理結果</t>
   </si>
 </sst>
 </file>
@@ -909,26 +909,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -942,15 +930,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1006,6 +994,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1626,7 +1626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -1636,121 +1636,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41562</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>6</v>
       </c>
@@ -1766,55 +1766,55 @@
       <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1837,66 +1837,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -3484,14 +3484,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -3508,6 +3500,14 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
@@ -3534,121 +3534,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41562</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>6</v>
       </c>
@@ -3664,55 +3664,55 @@
       <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>10</v>
       </c>
@@ -3735,66 +3735,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -5382,14 +5382,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -5406,6 +5398,14 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
@@ -5422,7 +5422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="AM16" sqref="AM16"/>
     </sheetView>
   </sheetViews>
@@ -5432,121 +5432,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41562</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>6</v>
       </c>
@@ -5562,55 +5562,55 @@
       <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>10</v>
       </c>
@@ -5633,66 +5633,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -6103,7 +6103,7 @@
         <v>44</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -6247,7 +6247,7 @@
         <v>23</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -7275,6 +7275,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -7291,16 +7301,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -7326,121 +7326,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41562</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>6</v>
       </c>
@@ -7456,55 +7456,55 @@
       <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>10</v>
       </c>
@@ -7527,66 +7527,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -7777,16 +7777,16 @@
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -7840,7 +7840,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -7892,7 +7892,7 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -7949,7 +7949,7 @@
         <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -8006,17 +8006,17 @@
         <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -8071,7 +8071,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -8125,7 +8125,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -8228,7 +8228,7 @@
         <v>31</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -8285,7 +8285,7 @@
         <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="2"/>
@@ -8343,7 +8343,7 @@
         <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -8976,14 +8976,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -9000,6 +8992,14 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
